--- a/documentation/Proposal/ProposalContentStudentNameRev03.xlsx
+++ b/documentation/Proposal/ProposalContentStudentNameRev03.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11110"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6747D47-61BD-7E4A-9257-CC5A4F4CEB44}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1040" yWindow="460" windowWidth="22460" windowHeight="14880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1035" yWindow="465" windowWidth="22455" windowHeight="14880"/>
   </bookViews>
   <sheets>
     <sheet name="DataEntry" sheetId="1" r:id="rId1"/>
@@ -73,9 +72,6 @@
   </si>
   <si>
     <t>AM2315 Humidity/Temp (0x5C), CCS811 VOC (0x5B), SSD1306 OLED (0x3C)</t>
-  </si>
-  <si>
-    <t>OLED screen from Ebay, Dehumidifier?, Fan?</t>
   </si>
   <si>
     <t>Humber Arboretum</t>
@@ -121,11 +117,14 @@
   <si>
     <t>Greenhouses are closed environments where conditions are optimized for plant growth. Ideally, in greenhouses, temperature should be 25 degrees Celsius, 95% relative humidity and 300 - 500 ppm CO2 level. Measuring and maintaining an ideal temperature, humidity and carbon dioxide (CO2) in greenhouses decreases the dependency on pesticides. Farmers can rely on real-time data of temperature, humidity and CO2 to determine wether their agriculture is at risk. They are able to use the monitoring system to encourage themselves to increase yields. This is an important need for framers in a world where consumers demand more and corporations demand increased profits and cannot afford substantial loses.These sensors will become a staple in the framer community where greenhouse and any structure that need to have a maintained climate.</t>
   </si>
+  <si>
+    <t>OLED screen from Ebay, USB powered fan from Amazon</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -280,23 +279,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -332,23 +314,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -524,21 +489,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="69.83203125" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="8.6640625" style="2"/>
+    <col min="1" max="1" width="19.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="69.85546875" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="8.7109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -546,15 +511,15 @@
         <v>43482</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
@@ -562,15 +527,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
@@ -578,7 +543,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
@@ -586,7 +551,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -594,15 +559,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>5</v>
       </c>
@@ -610,54 +575,54 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="112" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="160" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="144" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B4" r:id="rId1" xr:uid="{DCFDB53F-4EF9-5240-90E5-523C1355066A}"/>
+    <hyperlink ref="B4" r:id="rId1"/>
   </hyperlinks>
   <printOptions gridLines="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -666,19 +631,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="8.6640625" style="2"/>
+    <col min="1" max="16384" width="8.7109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="128" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" ht="135" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="str">
         <f>DataEntry!A1</f>
         <v>Submission Date</v>
@@ -740,7 +705,7 @@
         <v>Solution description</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="365" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <f>DataEntry!B1</f>
         <v>43482</v>
@@ -795,7 +760,7 @@
       </c>
       <c r="N2" s="2" t="str">
         <f>DataEntry!B14</f>
-        <v>OLED screen from Ebay, Dehumidifier?, Fan?</v>
+        <v>OLED screen from Ebay, USB powered fan from Amazon</v>
       </c>
       <c r="O2" s="2" t="str">
         <f>DataEntry!B15</f>

--- a/documentation/Proposal/ProposalContentStudentNameRev03.xlsx
+++ b/documentation/Proposal/ProposalContentStudentNameRev03.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="1035" yWindow="465" windowWidth="22455" windowHeight="14880"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9600"/>
   </bookViews>
   <sheets>
     <sheet name="DataEntry" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>Submission Date</t>
   </si>
@@ -75,9 +75,6 @@
   </si>
   <si>
     <t>Humber Arboretum</t>
-  </si>
-  <si>
-    <t>Greenhouse Monitoring System????</t>
   </si>
   <si>
     <t>https://github.com/PrincessHernandez/GreenhouseMonitoringSystem</t>
@@ -119,6 +116,12 @@
   </si>
   <si>
     <t>OLED screen from Ebay, USB powered fan from Amazon</t>
+  </si>
+  <si>
+    <t>Dan, L., Jianmei, S., Yang, Y., &amp; Jianqiu, X. (2016). Precise Agricultural Greenhouses Based on the IoT and Fuzzy Control. 2016 International Conference on Intelligent Transportation, Big Data &amp; Smart City (ICITBS). doi:10.1109/icitbs.2016.19</t>
+  </si>
+  <si>
+    <t>Greenhouse Monitoring System</t>
   </si>
 </sst>
 </file>
@@ -492,8 +495,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -516,7 +519,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -532,7 +535,7 @@
         <v>12</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -580,7 +583,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -588,7 +591,7 @@
         <v>6</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -596,12 +599,15 @@
         <v>8</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>9</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -609,7 +615,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -617,7 +623,7 @@
         <v>10</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -712,7 +718,7 @@
       </c>
       <c r="B2" s="2" t="str">
         <f>DataEntry!B2</f>
-        <v>Greenhouse Monitoring System????</v>
+        <v>Greenhouse Monitoring System</v>
       </c>
       <c r="C2" s="2" t="str">
         <f>DataEntry!B3</f>
@@ -754,9 +760,9 @@
         <f>DataEntry!B12</f>
         <v>Jones, J.B. (2013, December 1). Maintaining Control in the Greenhouse. Retrieved from https://www.maximumyield.com/maintaining-control-in-the-greenhouse/2/949</v>
       </c>
-      <c r="M2" s="2">
+      <c r="M2" s="2" t="str">
         <f>DataEntry!B13</f>
-        <v>0</v>
+        <v>Dan, L., Jianmei, S., Yang, Y., &amp; Jianqiu, X. (2016). Precise Agricultural Greenhouses Based on the IoT and Fuzzy Control. 2016 International Conference on Intelligent Transportation, Big Data &amp; Smart City (ICITBS). doi:10.1109/icitbs.2016.19</v>
       </c>
       <c r="N2" s="2" t="str">
         <f>DataEntry!B14</f>
